--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -144,13 +144,25 @@
     <t>Socially assigned</t>
   </si>
   <si>
+    <t>Socially Assigned</t>
+  </si>
+  <si>
     <t>Missing - Restricted access</t>
   </si>
   <si>
+    <t>Missing - Restricted Access</t>
+  </si>
+  <si>
     <t>Missing - Not provided</t>
   </si>
   <si>
+    <t>Missing - Not Provided</t>
+  </si>
+  <si>
     <t>Missing - Not collected</t>
+  </si>
+  <si>
+    <t>Missing - Not Collected</t>
   </si>
   <si>
     <t>Derived</t>
@@ -497,7 +509,7 @@
         <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -506,10 +518,10 @@
         <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -518,10 +530,10 @@
         <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -530,10 +542,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -542,10 +554,10 @@
         <v>41</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -554,10 +566,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2"/>
     </row>

--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>Level</t>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Missing - Not Collected</t>
+  </si>
+  <si>
+    <t>Missing - Unknown</t>
   </si>
   <si>
     <t>Derived</t>
@@ -481,7 +484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -573,6 +576,18 @@
       </c>
       <c r="D7" s="2"/>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/CodeSystem-race-collection-method.xlsx
+++ b/docs/CodeSystem-race-collection-method.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
